--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-03.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-03.xlsx
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 용병"] 더는 물러설 수 없다. 놈들이 여기서 나타난다면…… 놈들을 해치우는 수밖에. 더 많은 살카츠인이 감염되는 걸 내버려둘 순 없다.
+    <t xml:space="preserve">[name="살카즈 용병"] 더는 물러설 수 없다. 놈들이 여기서 나타난다면…… 놈들을 해치우는 수밖에. 더 많은 살카즈가 감염되는 걸 내버려둘 순 없다.
 </t>
   </si>
   <si>
